--- a/trunk/Presentation/TasksheetFinal.xlsx
+++ b/trunk/Presentation/TasksheetFinal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bui Tien Tuan\Desktop\In_Capston\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bui Tien Tuan\Desktop\In\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="150">
   <si>
     <t>No.</t>
   </si>
@@ -468,6 +468,12 @@
   </si>
   <si>
     <t>Advance Search</t>
+  </si>
+  <si>
+    <t>Register Jobrequest</t>
+  </si>
+  <si>
+    <t>Cancel apply</t>
   </si>
 </sst>
 </file>
@@ -618,7 +624,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -675,16 +681,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -699,17 +716,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1015,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:I149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J120" sqref="J120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1032,39 +1041,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="104.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="26" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="25">
-        <v>1</v>
-      </c>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -1076,12 +1085,12 @@
         <v>6</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9" ht="15.75">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="4" t="s">
         <v>25</v>
       </c>
@@ -1091,12 +1100,12 @@
         <v>6</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="15.75">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
@@ -1106,12 +1115,12 @@
         <v>6</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="4" t="s">
         <v>26</v>
       </c>
@@ -1121,12 +1130,12 @@
         <v>6</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" spans="1:9" ht="15.75">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1136,12 +1145,12 @@
         <v>6</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
     </row>
     <row r="7" spans="1:9" ht="15.75">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="4" t="s">
         <v>27</v>
       </c>
@@ -1151,14 +1160,14 @@
         <v>6</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A8" s="26">
+      <c r="A8" s="31">
         <v>2</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="31" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1170,12 +1179,12 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
     </row>
     <row r="9" spans="1:9" ht="15.75">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="4" t="s">
         <v>30</v>
       </c>
@@ -1185,12 +1194,12 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
     </row>
     <row r="10" spans="1:9" ht="15.75">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1200,12 +1209,12 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
     </row>
     <row r="11" spans="1:9" ht="15.75">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1215,14 +1224,14 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
     </row>
     <row r="12" spans="1:9" ht="15.75">
-      <c r="A12" s="26">
+      <c r="A12" s="31">
         <v>3</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="31" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1232,12 +1241,12 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="20" t="s">
         <v>33</v>
       </c>
@@ -1245,12 +1254,12 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="19" t="s">
         <v>63</v>
       </c>
@@ -1260,12 +1269,12 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="19" t="s">
         <v>64</v>
       </c>
@@ -1275,12 +1284,12 @@
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="19" t="s">
         <v>65</v>
       </c>
@@ -1290,12 +1299,12 @@
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="19" t="s">
         <v>57</v>
       </c>
@@ -1303,12 +1312,12 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
     </row>
     <row r="18" spans="1:9" ht="15.75">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="20" t="s">
         <v>66</v>
       </c>
@@ -1316,12 +1325,12 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
     </row>
     <row r="19" spans="1:9" ht="15.75">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="19" t="s">
         <v>67</v>
       </c>
@@ -1331,12 +1340,12 @@
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
     </row>
     <row r="20" spans="1:9" ht="15.75">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="19" t="s">
         <v>57</v>
       </c>
@@ -1344,12 +1353,12 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
     </row>
     <row r="21" spans="1:9" ht="15.75">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="20" t="s">
         <v>34</v>
       </c>
@@ -1357,12 +1366,12 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
     </row>
     <row r="22" spans="1:9" ht="15.75">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="19" t="s">
         <v>68</v>
       </c>
@@ -1372,12 +1381,12 @@
       <c r="G22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
     </row>
     <row r="23" spans="1:9" ht="15.75">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="19" t="s">
         <v>69</v>
       </c>
@@ -1387,12 +1396,12 @@
       <c r="G23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
     </row>
     <row r="24" spans="1:9" ht="15.75">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="19" t="s">
         <v>70</v>
       </c>
@@ -1402,12 +1411,12 @@
       <c r="G24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
     </row>
     <row r="25" spans="1:9" ht="15.75">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="19" t="s">
         <v>71</v>
       </c>
@@ -1417,12 +1426,12 @@
       <c r="G25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
     </row>
     <row r="26" spans="1:9" ht="15.75">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="19" t="s">
         <v>72</v>
       </c>
@@ -1432,12 +1441,12 @@
       <c r="G26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
     </row>
     <row r="27" spans="1:9" ht="15.75">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="19" t="s">
         <v>73</v>
       </c>
@@ -1447,12 +1456,12 @@
       <c r="G27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
     </row>
     <row r="28" spans="1:9" ht="15.75">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="19" t="s">
         <v>57</v>
       </c>
@@ -1460,12 +1469,12 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
     </row>
     <row r="29" spans="1:9" ht="15.75">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="20" t="s">
         <v>74</v>
       </c>
@@ -1473,12 +1482,12 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
     </row>
     <row r="30" spans="1:9" ht="15.75">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="19" t="s">
         <v>75</v>
       </c>
@@ -1488,12 +1497,12 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
     </row>
     <row r="31" spans="1:9" ht="15.75">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="19" t="s">
         <v>76</v>
       </c>
@@ -1503,12 +1512,12 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
     </row>
     <row r="32" spans="1:9" ht="15.75">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="19" t="s">
         <v>58</v>
       </c>
@@ -1518,12 +1527,12 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
     </row>
     <row r="33" spans="1:9" ht="15.75">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="19" t="s">
         <v>77</v>
       </c>
@@ -1533,12 +1542,12 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
     </row>
     <row r="34" spans="1:9" ht="15.75">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="19" t="s">
         <v>78</v>
       </c>
@@ -1548,12 +1557,12 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
     </row>
     <row r="35" spans="1:9" ht="15.75">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="19" t="s">
         <v>79</v>
       </c>
@@ -1563,12 +1572,12 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
     </row>
     <row r="36" spans="1:9" ht="15.75">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
       <c r="C36" s="19" t="s">
         <v>57</v>
       </c>
@@ -1576,12 +1585,12 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
     </row>
     <row r="37" spans="1:9" ht="15.75">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="20" t="s">
         <v>80</v>
       </c>
@@ -1589,12 +1598,12 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
     </row>
     <row r="38" spans="1:9" ht="15.75">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
       <c r="C38" s="22" t="s">
         <v>70</v>
       </c>
@@ -1604,12 +1613,12 @@
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
     </row>
     <row r="39" spans="1:9" ht="15.75">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="22" t="s">
         <v>72</v>
       </c>
@@ -1619,12 +1628,12 @@
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
     </row>
     <row r="40" spans="1:9" ht="15.75">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
       <c r="C40" s="22" t="s">
         <v>73</v>
       </c>
@@ -1634,12 +1643,12 @@
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
     </row>
     <row r="41" spans="1:9" ht="15.75">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
       <c r="C41" s="22" t="s">
         <v>57</v>
       </c>
@@ -1647,12 +1656,12 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
     </row>
     <row r="42" spans="1:9" ht="15.75">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="20" t="s">
         <v>81</v>
       </c>
@@ -1660,12 +1669,12 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
     </row>
     <row r="43" spans="1:9" ht="15.75">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="22" t="s">
         <v>82</v>
       </c>
@@ -1675,12 +1684,12 @@
       <c r="G43" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
     </row>
     <row r="44" spans="1:9" ht="15.75">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="22" t="s">
         <v>83</v>
       </c>
@@ -1690,12 +1699,12 @@
       <c r="G44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
     </row>
     <row r="45" spans="1:9" ht="15.75">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
       <c r="C45" s="22" t="s">
         <v>70</v>
       </c>
@@ -1705,12 +1714,12 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
     </row>
     <row r="46" spans="1:9" ht="15.75">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
       <c r="C46" s="22" t="s">
         <v>84</v>
       </c>
@@ -1720,12 +1729,12 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
     </row>
     <row r="47" spans="1:9" ht="15.75">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
       <c r="C47" s="20" t="s">
         <v>85</v>
       </c>
@@ -1733,12 +1742,12 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
     </row>
     <row r="48" spans="1:9" ht="15.75">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
       <c r="C48" s="22" t="s">
         <v>86</v>
       </c>
@@ -1748,12 +1757,12 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
     </row>
     <row r="49" spans="1:9" ht="15.75">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
       <c r="C49" s="22" t="s">
         <v>87</v>
       </c>
@@ -1763,12 +1772,12 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
     </row>
     <row r="50" spans="1:9" ht="15.75">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
       <c r="C50" s="22" t="s">
         <v>88</v>
       </c>
@@ -1778,12 +1787,12 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
     </row>
     <row r="51" spans="1:9" ht="15.75">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
       <c r="C51" s="6" t="s">
         <v>35</v>
       </c>
@@ -1793,12 +1802,12 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
     </row>
     <row r="52" spans="1:9" ht="15.75">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
       <c r="C52" s="6" t="s">
         <v>36</v>
       </c>
@@ -1808,12 +1817,12 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
     </row>
     <row r="53" spans="1:9" ht="15.75">
-      <c r="A53" s="25"/>
-      <c r="B53" s="24"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="32"/>
       <c r="C53" s="6" t="s">
         <v>37</v>
       </c>
@@ -1823,14 +1832,14 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A54" s="27">
+      <c r="A54" s="30">
         <v>4</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="31" t="s">
         <v>4</v>
       </c>
       <c r="C54" s="7" t="s">
@@ -1840,12 +1849,12 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
     </row>
     <row r="55" spans="1:9" ht="15.75">
-      <c r="A55" s="27"/>
-      <c r="B55" s="24"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="32"/>
       <c r="C55" s="8" t="s">
         <v>39</v>
       </c>
@@ -1855,12 +1864,12 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
     </row>
     <row r="56" spans="1:9" ht="15.75">
-      <c r="A56" s="27"/>
-      <c r="B56" s="24"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="32"/>
       <c r="C56" s="8" t="s">
         <v>10</v>
       </c>
@@ -1870,12 +1879,12 @@
       <c r="G56" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
     </row>
     <row r="57" spans="1:9" ht="15.75">
-      <c r="A57" s="27"/>
-      <c r="B57" s="24"/>
+      <c r="A57" s="30"/>
+      <c r="B57" s="32"/>
       <c r="C57" s="7" t="s">
         <v>11</v>
       </c>
@@ -1885,12 +1894,12 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
     </row>
     <row r="58" spans="1:9" ht="15.75">
-      <c r="A58" s="27"/>
-      <c r="B58" s="24"/>
+      <c r="A58" s="30"/>
+      <c r="B58" s="32"/>
       <c r="C58" s="8" t="s">
         <v>40</v>
       </c>
@@ -1900,12 +1909,12 @@
       <c r="G58" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
     </row>
     <row r="59" spans="1:9" ht="15.75">
-      <c r="A59" s="27"/>
-      <c r="B59" s="24"/>
+      <c r="A59" s="30"/>
+      <c r="B59" s="32"/>
       <c r="C59" s="16" t="s">
         <v>41</v>
       </c>
@@ -1915,12 +1924,12 @@
       <c r="G59" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
     </row>
     <row r="60" spans="1:9" ht="15.75">
-      <c r="A60" s="27"/>
-      <c r="B60" s="24"/>
+      <c r="A60" s="30"/>
+      <c r="B60" s="32"/>
       <c r="C60" s="13" t="s">
         <v>12</v>
       </c>
@@ -1930,12 +1939,12 @@
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
     </row>
     <row r="61" spans="1:9" ht="15.75">
-      <c r="A61" s="27"/>
-      <c r="B61" s="24"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="32"/>
       <c r="C61" s="14" t="s">
         <v>42</v>
       </c>
@@ -1943,12 +1952,12 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
     </row>
     <row r="62" spans="1:9" ht="15.75">
-      <c r="A62" s="27"/>
-      <c r="B62" s="24"/>
+      <c r="A62" s="30"/>
+      <c r="B62" s="32"/>
       <c r="C62" s="15" t="s">
         <v>90</v>
       </c>
@@ -1958,12 +1967,12 @@
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
     </row>
     <row r="63" spans="1:9" ht="15.75">
-      <c r="A63" s="27"/>
-      <c r="B63" s="24"/>
+      <c r="A63" s="30"/>
+      <c r="B63" s="32"/>
       <c r="C63" s="15" t="s">
         <v>43</v>
       </c>
@@ -1973,12 +1982,12 @@
       <c r="G63" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
     </row>
     <row r="64" spans="1:9" ht="15.75">
-      <c r="A64" s="27"/>
-      <c r="B64" s="24"/>
+      <c r="A64" s="30"/>
+      <c r="B64" s="32"/>
       <c r="C64" s="15" t="s">
         <v>91</v>
       </c>
@@ -1988,12 +1997,12 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
     </row>
     <row r="65" spans="1:9" ht="15.75">
-      <c r="A65" s="27"/>
-      <c r="B65" s="24"/>
+      <c r="A65" s="30"/>
+      <c r="B65" s="32"/>
       <c r="C65" s="15" t="s">
         <v>92</v>
       </c>
@@ -2003,12 +2012,12 @@
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
     </row>
     <row r="66" spans="1:9" ht="15.75">
-      <c r="A66" s="27"/>
-      <c r="B66" s="24"/>
+      <c r="A66" s="30"/>
+      <c r="B66" s="32"/>
       <c r="C66" s="15" t="s">
         <v>93</v>
       </c>
@@ -2018,12 +2027,12 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="12"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
     </row>
     <row r="67" spans="1:9" ht="15.75">
-      <c r="A67" s="27"/>
-      <c r="B67" s="24"/>
+      <c r="A67" s="30"/>
+      <c r="B67" s="32"/>
       <c r="C67" s="14" t="s">
         <v>44</v>
       </c>
@@ -2031,12 +2040,12 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
     </row>
     <row r="68" spans="1:9" ht="15.75">
-      <c r="A68" s="27"/>
-      <c r="B68" s="24"/>
+      <c r="A68" s="30"/>
+      <c r="B68" s="32"/>
       <c r="C68" s="15" t="s">
         <v>45</v>
       </c>
@@ -2046,12 +2055,12 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
     </row>
     <row r="69" spans="1:9" ht="15.75">
-      <c r="A69" s="27"/>
-      <c r="B69" s="24"/>
+      <c r="A69" s="30"/>
+      <c r="B69" s="32"/>
       <c r="C69" s="14" t="s">
         <v>15</v>
       </c>
@@ -2059,12 +2068,12 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="28"/>
     </row>
     <row r="70" spans="1:9" ht="15.75">
-      <c r="A70" s="27"/>
-      <c r="B70" s="24"/>
+      <c r="A70" s="30"/>
+      <c r="B70" s="32"/>
       <c r="C70" s="15" t="s">
         <v>89</v>
       </c>
@@ -2074,12 +2083,12 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="36"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
     </row>
     <row r="71" spans="1:9" ht="15.75">
-      <c r="A71" s="27"/>
-      <c r="B71" s="25"/>
+      <c r="A71" s="30"/>
+      <c r="B71" s="29"/>
       <c r="C71" s="15" t="s">
         <v>108</v>
       </c>
@@ -2089,14 +2098,14 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
     </row>
     <row r="72" spans="1:9" ht="15.75">
-      <c r="A72" s="31" t="s">
+      <c r="A72" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B72" s="26" t="s">
+      <c r="B72" s="31" t="s">
         <v>105</v>
       </c>
       <c r="C72" s="15" t="s">
@@ -2108,14 +2117,14 @@
       <c r="G72" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H72" s="36"/>
-      <c r="I72" s="36">
+      <c r="H72" s="28"/>
+      <c r="I72" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15.75">
-      <c r="A73" s="28"/>
-      <c r="B73" s="24"/>
+      <c r="A73" s="33"/>
+      <c r="B73" s="32"/>
       <c r="C73" s="15" t="s">
         <v>46</v>
       </c>
@@ -2125,14 +2134,14 @@
       <c r="G73" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H73" s="36"/>
-      <c r="I73" s="36">
+      <c r="H73" s="28"/>
+      <c r="I73" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75">
-      <c r="A74" s="28"/>
-      <c r="B74" s="24"/>
+      <c r="A74" s="33"/>
+      <c r="B74" s="32"/>
       <c r="C74" s="15" t="s">
         <v>63</v>
       </c>
@@ -2142,14 +2151,14 @@
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="36">
+      <c r="H74" s="28"/>
+      <c r="I74" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.75">
-      <c r="A75" s="28"/>
-      <c r="B75" s="24"/>
+      <c r="A75" s="33"/>
+      <c r="B75" s="32"/>
       <c r="C75" s="15" t="s">
         <v>147</v>
       </c>
@@ -2159,14 +2168,14 @@
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="36">
+      <c r="H75" s="28"/>
+      <c r="I75" s="28">
         <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75">
-      <c r="A76" s="28"/>
-      <c r="B76" s="24"/>
+      <c r="A76" s="33"/>
+      <c r="B76" s="32"/>
       <c r="C76" s="15" t="s">
         <v>110</v>
       </c>
@@ -2176,14 +2185,14 @@
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="36">
+      <c r="H76" s="28"/>
+      <c r="I76" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.75">
-      <c r="A77" s="28"/>
-      <c r="B77" s="24"/>
+      <c r="A77" s="33"/>
+      <c r="B77" s="32"/>
       <c r="C77" s="15" t="s">
         <v>65</v>
       </c>
@@ -2193,14 +2202,14 @@
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="36">
+      <c r="H77" s="28"/>
+      <c r="I77" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.75">
-      <c r="A78" s="28"/>
-      <c r="B78" s="24"/>
+      <c r="A78" s="33"/>
+      <c r="B78" s="32"/>
       <c r="C78" s="15" t="s">
         <v>67</v>
       </c>
@@ -2210,14 +2219,14 @@
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="36">
+      <c r="H78" s="28"/>
+      <c r="I78" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15.75">
-      <c r="A79" s="28"/>
-      <c r="B79" s="24"/>
+      <c r="A79" s="33"/>
+      <c r="B79" s="32"/>
       <c r="C79" s="15" t="s">
         <v>111</v>
       </c>
@@ -2227,14 +2236,14 @@
       <c r="G79" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H79" s="36"/>
-      <c r="I79" s="36">
+      <c r="H79" s="28"/>
+      <c r="I79" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15.75">
-      <c r="A80" s="28"/>
-      <c r="B80" s="24"/>
+      <c r="A80" s="33"/>
+      <c r="B80" s="32"/>
       <c r="C80" s="15" t="s">
         <v>112</v>
       </c>
@@ -2244,14 +2253,14 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="36">
+      <c r="H80" s="28"/>
+      <c r="I80" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15.75">
-      <c r="A81" s="28"/>
-      <c r="B81" s="24"/>
+      <c r="A81" s="33"/>
+      <c r="B81" s="32"/>
       <c r="C81" s="15" t="s">
         <v>82</v>
       </c>
@@ -2261,14 +2270,14 @@
       <c r="G81" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H81" s="36"/>
-      <c r="I81" s="36">
+      <c r="H81" s="28"/>
+      <c r="I81" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.75">
-      <c r="A82" s="28"/>
-      <c r="B82" s="24"/>
+      <c r="A82" s="33"/>
+      <c r="B82" s="32"/>
       <c r="C82" s="15" t="s">
         <v>113</v>
       </c>
@@ -2278,14 +2287,14 @@
       <c r="G82" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H82" s="36"/>
-      <c r="I82" s="36">
+      <c r="H82" s="28"/>
+      <c r="I82" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75">
-      <c r="A83" s="28"/>
-      <c r="B83" s="24"/>
+      <c r="A83" s="33"/>
+      <c r="B83" s="32"/>
       <c r="C83" s="15" t="s">
         <v>114</v>
       </c>
@@ -2295,14 +2304,14 @@
       <c r="G83" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H83" s="36"/>
-      <c r="I83" s="36">
+      <c r="H83" s="28"/>
+      <c r="I83" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15.75">
-      <c r="A84" s="28"/>
-      <c r="B84" s="24"/>
+      <c r="A84" s="33"/>
+      <c r="B84" s="32"/>
       <c r="C84" s="15" t="s">
         <v>115</v>
       </c>
@@ -2312,14 +2321,14 @@
       <c r="G84" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H84" s="36"/>
-      <c r="I84" s="36">
+      <c r="H84" s="28"/>
+      <c r="I84" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75">
-      <c r="A85" s="28"/>
-      <c r="B85" s="24"/>
+      <c r="A85" s="33"/>
+      <c r="B85" s="32"/>
       <c r="C85" s="15" t="s">
         <v>116</v>
       </c>
@@ -2329,14 +2338,14 @@
       <c r="G85" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H85" s="36"/>
-      <c r="I85" s="36">
+      <c r="H85" s="28"/>
+      <c r="I85" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.75">
-      <c r="A86" s="28"/>
-      <c r="B86" s="24"/>
+      <c r="A86" s="33"/>
+      <c r="B86" s="32"/>
       <c r="C86" s="15" t="s">
         <v>117</v>
       </c>
@@ -2346,14 +2355,14 @@
       <c r="G86" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H86" s="36"/>
-      <c r="I86" s="36">
+      <c r="H86" s="28"/>
+      <c r="I86" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15.75">
-      <c r="A87" s="28"/>
-      <c r="B87" s="24"/>
+      <c r="A87" s="33"/>
+      <c r="B87" s="32"/>
       <c r="C87" s="15" t="s">
         <v>118</v>
       </c>
@@ -2363,14 +2372,14 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
-      <c r="H87" s="36"/>
-      <c r="I87" s="36">
+      <c r="H87" s="28"/>
+      <c r="I87" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.75">
-      <c r="A88" s="28"/>
-      <c r="B88" s="24"/>
+      <c r="A88" s="33"/>
+      <c r="B88" s="32"/>
       <c r="C88" s="15" t="s">
         <v>103</v>
       </c>
@@ -2380,14 +2389,14 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="36">
+      <c r="H88" s="28"/>
+      <c r="I88" s="28">
         <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75">
-      <c r="A89" s="28"/>
-      <c r="B89" s="24"/>
+      <c r="A89" s="33"/>
+      <c r="B89" s="32"/>
       <c r="C89" s="15" t="s">
         <v>87</v>
       </c>
@@ -2397,14 +2406,14 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
-      <c r="H89" s="36"/>
-      <c r="I89" s="36">
+      <c r="H89" s="28"/>
+      <c r="I89" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="15.75">
-      <c r="A90" s="28"/>
-      <c r="B90" s="24"/>
+      <c r="A90" s="33"/>
+      <c r="B90" s="32"/>
       <c r="C90" s="15" t="s">
         <v>119</v>
       </c>
@@ -2414,14 +2423,14 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
-      <c r="H90" s="36"/>
-      <c r="I90" s="36">
+      <c r="H90" s="28"/>
+      <c r="I90" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.75">
-      <c r="A91" s="28"/>
-      <c r="B91" s="24"/>
+      <c r="A91" s="33"/>
+      <c r="B91" s="32"/>
       <c r="C91" s="15" t="s">
         <v>120</v>
       </c>
@@ -2431,14 +2440,14 @@
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
-      <c r="H91" s="36"/>
-      <c r="I91" s="36">
+      <c r="H91" s="28"/>
+      <c r="I91" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75">
-      <c r="A92" s="28"/>
-      <c r="B92" s="24"/>
+      <c r="A92" s="33"/>
+      <c r="B92" s="32"/>
       <c r="C92" s="15" t="s">
         <v>121</v>
       </c>
@@ -2448,14 +2457,14 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
-      <c r="H92" s="36"/>
-      <c r="I92" s="36">
+      <c r="H92" s="28"/>
+      <c r="I92" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.75">
-      <c r="A93" s="28"/>
-      <c r="B93" s="24"/>
+      <c r="A93" s="33"/>
+      <c r="B93" s="32"/>
       <c r="C93" s="15" t="s">
         <v>122</v>
       </c>
@@ -2465,14 +2474,14 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
-      <c r="H93" s="36"/>
-      <c r="I93" s="36">
+      <c r="H93" s="28"/>
+      <c r="I93" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75">
-      <c r="A94" s="28"/>
-      <c r="B94" s="24"/>
+      <c r="A94" s="33"/>
+      <c r="B94" s="32"/>
       <c r="C94" s="15" t="s">
         <v>123</v>
       </c>
@@ -2482,14 +2491,14 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
-      <c r="H94" s="36"/>
-      <c r="I94" s="36">
+      <c r="H94" s="28"/>
+      <c r="I94" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="15.75">
-      <c r="A95" s="28"/>
-      <c r="B95" s="24"/>
+      <c r="A95" s="33"/>
+      <c r="B95" s="32"/>
       <c r="C95" s="15" t="s">
         <v>124</v>
       </c>
@@ -2499,14 +2508,14 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
-      <c r="H95" s="36"/>
-      <c r="I95" s="36">
+      <c r="H95" s="28"/>
+      <c r="I95" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="15.75">
-      <c r="A96" s="28"/>
-      <c r="B96" s="24"/>
+      <c r="A96" s="33"/>
+      <c r="B96" s="32"/>
       <c r="C96" s="15" t="s">
         <v>125</v>
       </c>
@@ -2516,14 +2525,14 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="36">
+      <c r="H96" s="28"/>
+      <c r="I96" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="15.75">
-      <c r="A97" s="28"/>
-      <c r="B97" s="24"/>
+      <c r="A97" s="33"/>
+      <c r="B97" s="32"/>
       <c r="C97" s="15" t="s">
         <v>126</v>
       </c>
@@ -2533,14 +2542,14 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
-      <c r="H97" s="36"/>
-      <c r="I97" s="36">
+      <c r="H97" s="28"/>
+      <c r="I97" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="15.75">
-      <c r="A98" s="28"/>
-      <c r="B98" s="24"/>
+      <c r="A98" s="33"/>
+      <c r="B98" s="32"/>
       <c r="C98" s="15" t="s">
         <v>127</v>
       </c>
@@ -2550,14 +2559,14 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
-      <c r="H98" s="36"/>
-      <c r="I98" s="36">
+      <c r="H98" s="28"/>
+      <c r="I98" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.75">
-      <c r="A99" s="28"/>
-      <c r="B99" s="24"/>
+      <c r="A99" s="33"/>
+      <c r="B99" s="32"/>
       <c r="C99" s="15" t="s">
         <v>128</v>
       </c>
@@ -2567,14 +2576,14 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
-      <c r="H99" s="36"/>
-      <c r="I99" s="36">
+      <c r="H99" s="28"/>
+      <c r="I99" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="15.75">
-      <c r="A100" s="28"/>
-      <c r="B100" s="24"/>
+      <c r="A100" s="33"/>
+      <c r="B100" s="32"/>
       <c r="C100" s="15" t="s">
         <v>129</v>
       </c>
@@ -2584,14 +2593,14 @@
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
-      <c r="H100" s="36"/>
-      <c r="I100" s="36">
+      <c r="H100" s="28"/>
+      <c r="I100" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.75">
-      <c r="A101" s="28"/>
-      <c r="B101" s="24"/>
+      <c r="A101" s="33"/>
+      <c r="B101" s="32"/>
       <c r="C101" s="15" t="s">
         <v>130</v>
       </c>
@@ -2601,14 +2610,14 @@
       <c r="G101" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H101" s="36"/>
-      <c r="I101" s="36">
+      <c r="H101" s="28"/>
+      <c r="I101" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="15.75">
-      <c r="A102" s="28"/>
-      <c r="B102" s="24"/>
+      <c r="A102" s="33"/>
+      <c r="B102" s="32"/>
       <c r="C102" s="15" t="s">
         <v>72</v>
       </c>
@@ -2618,14 +2627,14 @@
       <c r="G102" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H102" s="36"/>
-      <c r="I102" s="36">
+      <c r="H102" s="28"/>
+      <c r="I102" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.75">
-      <c r="A103" s="28"/>
-      <c r="B103" s="24"/>
+      <c r="A103" s="33"/>
+      <c r="B103" s="32"/>
       <c r="C103" s="15" t="s">
         <v>131</v>
       </c>
@@ -2635,14 +2644,14 @@
       <c r="G103" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H103" s="36"/>
-      <c r="I103" s="36">
+      <c r="H103" s="28"/>
+      <c r="I103" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="15.75">
-      <c r="A104" s="28"/>
-      <c r="B104" s="24"/>
+      <c r="A104" s="33"/>
+      <c r="B104" s="32"/>
       <c r="C104" s="15" t="s">
         <v>132</v>
       </c>
@@ -2652,14 +2661,14 @@
       <c r="G104" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H104" s="36"/>
-      <c r="I104" s="36">
+      <c r="H104" s="28"/>
+      <c r="I104" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15.75">
-      <c r="A105" s="28"/>
-      <c r="B105" s="24"/>
+      <c r="A105" s="33"/>
+      <c r="B105" s="32"/>
       <c r="C105" s="15" t="s">
         <v>133</v>
       </c>
@@ -2669,14 +2678,14 @@
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
-      <c r="H105" s="36"/>
-      <c r="I105" s="36">
+      <c r="H105" s="28"/>
+      <c r="I105" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="15.75">
-      <c r="A106" s="28"/>
-      <c r="B106" s="24"/>
+      <c r="A106" s="33"/>
+      <c r="B106" s="32"/>
       <c r="C106" s="15" t="s">
         <v>134</v>
       </c>
@@ -2686,14 +2695,14 @@
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
-      <c r="H106" s="36"/>
-      <c r="I106" s="36">
+      <c r="H106" s="28"/>
+      <c r="I106" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.75">
-      <c r="A107" s="28"/>
-      <c r="B107" s="24"/>
+      <c r="A107" s="33"/>
+      <c r="B107" s="32"/>
       <c r="C107" s="15" t="s">
         <v>135</v>
       </c>
@@ -2703,14 +2712,14 @@
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
-      <c r="H107" s="36"/>
-      <c r="I107" s="36">
+      <c r="H107" s="28"/>
+      <c r="I107" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="15.75">
-      <c r="A108" s="28"/>
-      <c r="B108" s="24"/>
+      <c r="A108" s="33"/>
+      <c r="B108" s="32"/>
       <c r="C108" s="15" t="s">
         <v>136</v>
       </c>
@@ -2720,14 +2729,14 @@
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
-      <c r="H108" s="36"/>
-      <c r="I108" s="36">
+      <c r="H108" s="28"/>
+      <c r="I108" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.75">
-      <c r="A109" s="28"/>
-      <c r="B109" s="24"/>
+      <c r="A109" s="33"/>
+      <c r="B109" s="32"/>
       <c r="C109" s="15" t="s">
         <v>137</v>
       </c>
@@ -2737,14 +2746,14 @@
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
-      <c r="H109" s="36"/>
-      <c r="I109" s="36">
+      <c r="H109" s="28"/>
+      <c r="I109" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="15.75">
-      <c r="A110" s="28"/>
-      <c r="B110" s="24"/>
+      <c r="A110" s="33"/>
+      <c r="B110" s="32"/>
       <c r="C110" s="15" t="s">
         <v>138</v>
       </c>
@@ -2754,14 +2763,14 @@
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
-      <c r="H110" s="36"/>
-      <c r="I110" s="36">
+      <c r="H110" s="28"/>
+      <c r="I110" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="15.75">
-      <c r="A111" s="28"/>
-      <c r="B111" s="24"/>
+      <c r="A111" s="33"/>
+      <c r="B111" s="32"/>
       <c r="C111" s="15" t="s">
         <v>139</v>
       </c>
@@ -2771,14 +2780,14 @@
       <c r="G111" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H111" s="36"/>
-      <c r="I111" s="36">
+      <c r="H111" s="28"/>
+      <c r="I111" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="15.75">
-      <c r="A112" s="28"/>
-      <c r="B112" s="24"/>
+      <c r="A112" s="33"/>
+      <c r="B112" s="32"/>
       <c r="C112" s="15" t="s">
         <v>140</v>
       </c>
@@ -2788,14 +2797,14 @@
       <c r="G112" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H112" s="36"/>
-      <c r="I112" s="36">
+      <c r="H112" s="28"/>
+      <c r="I112" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="15.75">
-      <c r="A113" s="28"/>
-      <c r="B113" s="24"/>
+      <c r="A113" s="33"/>
+      <c r="B113" s="32"/>
       <c r="C113" s="15" t="s">
         <v>141</v>
       </c>
@@ -2805,14 +2814,14 @@
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
-      <c r="H113" s="36"/>
-      <c r="I113" s="36">
+      <c r="H113" s="28"/>
+      <c r="I113" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="15.75">
-      <c r="A114" s="28"/>
-      <c r="B114" s="24"/>
+      <c r="A114" s="33"/>
+      <c r="B114" s="32"/>
       <c r="C114" s="15" t="s">
         <v>142</v>
       </c>
@@ -2822,14 +2831,14 @@
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
-      <c r="H114" s="36"/>
-      <c r="I114" s="36">
+      <c r="H114" s="28"/>
+      <c r="I114" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="15.75">
-      <c r="A115" s="28"/>
-      <c r="B115" s="24"/>
+      <c r="A115" s="33"/>
+      <c r="B115" s="32"/>
       <c r="C115" s="15" t="s">
         <v>77</v>
       </c>
@@ -2839,14 +2848,14 @@
       </c>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
-      <c r="H115" s="36"/>
-      <c r="I115" s="36">
+      <c r="H115" s="28"/>
+      <c r="I115" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="15.75">
-      <c r="A116" s="28"/>
-      <c r="B116" s="24"/>
+      <c r="A116" s="33"/>
+      <c r="B116" s="32"/>
       <c r="C116" s="15" t="s">
         <v>143</v>
       </c>
@@ -2856,14 +2865,14 @@
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
-      <c r="H116" s="36"/>
-      <c r="I116" s="36">
+      <c r="H116" s="28"/>
+      <c r="I116" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="15.75">
-      <c r="A117" s="28"/>
-      <c r="B117" s="24"/>
+      <c r="A117" s="33"/>
+      <c r="B117" s="32"/>
       <c r="C117" s="15" t="s">
         <v>144</v>
       </c>
@@ -2873,14 +2882,14 @@
       <c r="G117" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H117" s="36"/>
-      <c r="I117" s="36">
+      <c r="H117" s="28"/>
+      <c r="I117" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="15.75">
-      <c r="A118" s="28"/>
-      <c r="B118" s="24"/>
+      <c r="A118" s="33"/>
+      <c r="B118" s="32"/>
       <c r="C118" s="15" t="s">
         <v>145</v>
       </c>
@@ -2890,14 +2899,14 @@
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
-      <c r="H118" s="36"/>
-      <c r="I118" s="36">
+      <c r="H118" s="28"/>
+      <c r="I118" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="15.75">
-      <c r="A119" s="28"/>
-      <c r="B119" s="24"/>
+      <c r="A119" s="33"/>
+      <c r="B119" s="32"/>
       <c r="C119" s="15" t="s">
         <v>146</v>
       </c>
@@ -2907,78 +2916,82 @@
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
-      <c r="H119" s="36"/>
-      <c r="I119" s="36">
+      <c r="H119" s="28"/>
+      <c r="I119" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="15.75">
-      <c r="A120" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="B120" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="C120" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E120" s="2"/>
+      <c r="A120" s="33"/>
+      <c r="B120" s="32"/>
+      <c r="C120" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
-      <c r="H120" s="36"/>
-      <c r="I120" s="36"/>
+      <c r="H120" s="28"/>
+      <c r="I120" s="28">
+        <v>3</v>
+      </c>
     </row>
     <row r="121" spans="1:9" ht="15.75">
-      <c r="A121" s="30"/>
-      <c r="B121" s="27"/>
-      <c r="C121" s="18" t="s">
-        <v>48</v>
+      <c r="A121" s="33"/>
+      <c r="B121" s="32"/>
+      <c r="C121" s="15" t="s">
+        <v>149</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="36"/>
-      <c r="I121" s="36"/>
+      <c r="G121" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H121" s="28"/>
+      <c r="I121" s="28">
+        <v>2</v>
+      </c>
     </row>
     <row r="122" spans="1:9" ht="15.75">
-      <c r="A122" s="30"/>
-      <c r="B122" s="27"/>
-      <c r="C122" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D122" s="2"/>
+      <c r="A122" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B122" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C122" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
-      <c r="G122" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H122" s="36"/>
-      <c r="I122" s="36"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="27"/>
+      <c r="I122" s="27"/>
     </row>
     <row r="123" spans="1:9" ht="15.75">
-      <c r="A123" s="30"/>
-      <c r="B123" s="27"/>
-      <c r="C123" s="8" t="s">
-        <v>99</v>
+      <c r="A123" s="35"/>
+      <c r="B123" s="30"/>
+      <c r="C123" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
-      <c r="G123" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H123" s="36"/>
-      <c r="I123" s="36"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="28"/>
+      <c r="I123" s="28"/>
     </row>
     <row r="124" spans="1:9" ht="15.75">
-      <c r="A124" s="30"/>
-      <c r="B124" s="27"/>
+      <c r="A124" s="35"/>
+      <c r="B124" s="30"/>
       <c r="C124" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -2986,76 +2999,74 @@
       <c r="G124" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H124" s="36"/>
-      <c r="I124" s="36"/>
+      <c r="H124" s="28"/>
+      <c r="I124" s="28"/>
     </row>
     <row r="125" spans="1:9" ht="15.75">
-      <c r="A125" s="30"/>
-      <c r="B125" s="27"/>
+      <c r="A125" s="35"/>
+      <c r="B125" s="30"/>
       <c r="C125" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H125" s="28"/>
+      <c r="I125" s="28"/>
+    </row>
+    <row r="126" spans="1:9" ht="15.75">
+      <c r="A126" s="35"/>
+      <c r="B126" s="30"/>
+      <c r="C126" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H126" s="28"/>
+      <c r="I126" s="28"/>
+    </row>
+    <row r="127" spans="1:9" ht="15.75">
+      <c r="A127" s="35"/>
+      <c r="B127" s="30"/>
+      <c r="C127" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="36"/>
-      <c r="I125" s="36"/>
-    </row>
-    <row r="126" spans="1:9" ht="15.75">
-      <c r="A126" s="30"/>
-      <c r="B126" s="27"/>
-      <c r="C126" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="36"/>
-      <c r="I126" s="36"/>
-    </row>
-    <row r="127" spans="1:9" ht="15.75">
-      <c r="A127" s="30"/>
-      <c r="B127" s="27"/>
-      <c r="C127" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
-      <c r="H127" s="36"/>
-      <c r="I127" s="36"/>
+      <c r="H127" s="28"/>
+      <c r="I127" s="28"/>
     </row>
     <row r="128" spans="1:9" ht="15.75">
-      <c r="A128" s="30"/>
-      <c r="B128" s="27"/>
-      <c r="C128" s="18" t="s">
-        <v>13</v>
+      <c r="A128" s="35"/>
+      <c r="B128" s="30"/>
+      <c r="C128" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
+      <c r="E128" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
-      <c r="H128" s="36"/>
-      <c r="I128" s="36"/>
+      <c r="H128" s="28"/>
+      <c r="I128" s="28"/>
     </row>
     <row r="129" spans="1:9" ht="15.75">
-      <c r="A129" s="28">
-        <v>6</v>
-      </c>
-      <c r="B129" s="24" t="s">
-        <v>5</v>
-      </c>
+      <c r="A129" s="35"/>
+      <c r="B129" s="30"/>
       <c r="C129" s="8" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>6</v>
@@ -3063,42 +3074,46 @@
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
-      <c r="H129" s="36"/>
-      <c r="I129" s="36"/>
+      <c r="H129" s="28"/>
+      <c r="I129" s="28"/>
     </row>
     <row r="130" spans="1:9" ht="15.75">
-      <c r="A130" s="28"/>
-      <c r="B130" s="24"/>
-      <c r="C130" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A130" s="35"/>
+      <c r="B130" s="30"/>
+      <c r="C130" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
-      <c r="H130" s="36"/>
-      <c r="I130" s="36"/>
+      <c r="H130" s="28"/>
+      <c r="I130" s="28"/>
     </row>
     <row r="131" spans="1:9" ht="15.75">
-      <c r="A131" s="28"/>
-      <c r="B131" s="24"/>
-      <c r="C131" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D131" s="2"/>
+      <c r="A131" s="33">
+        <v>6</v>
+      </c>
+      <c r="B131" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
-      <c r="H131" s="36"/>
-      <c r="I131" s="36"/>
+      <c r="H131" s="28"/>
+      <c r="I131" s="28"/>
     </row>
     <row r="132" spans="1:9" ht="15.75">
-      <c r="A132" s="28"/>
-      <c r="B132" s="24"/>
-      <c r="C132" s="17" t="s">
-        <v>54</v>
+      <c r="A132" s="33"/>
+      <c r="B132" s="32"/>
+      <c r="C132" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>6</v>
@@ -3106,57 +3121,55 @@
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
-      <c r="H132" s="36"/>
-      <c r="I132" s="36"/>
+      <c r="H132" s="28"/>
+      <c r="I132" s="28"/>
     </row>
     <row r="133" spans="1:9" ht="15.75">
-      <c r="A133" s="28"/>
-      <c r="B133" s="24"/>
-      <c r="C133" s="18" t="s">
-        <v>55</v>
+      <c r="A133" s="33"/>
+      <c r="B133" s="32"/>
+      <c r="C133" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
-      <c r="H133" s="36"/>
-      <c r="I133" s="36"/>
+      <c r="H133" s="28"/>
+      <c r="I133" s="28"/>
     </row>
     <row r="134" spans="1:9" ht="15.75">
-      <c r="A134" s="28"/>
-      <c r="B134" s="24"/>
+      <c r="A134" s="33"/>
+      <c r="B134" s="32"/>
       <c r="C134" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D134" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
-      <c r="G134" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H134" s="36"/>
-      <c r="I134" s="36"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="28"/>
+      <c r="I134" s="28"/>
     </row>
     <row r="135" spans="1:9" ht="15.75">
-      <c r="A135" s="28"/>
-      <c r="B135" s="24"/>
-      <c r="C135" s="17" t="s">
-        <v>95</v>
+      <c r="A135" s="33"/>
+      <c r="B135" s="32"/>
+      <c r="C135" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="D135" s="2"/>
-      <c r="E135" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E135" s="2"/>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
-      <c r="H135" s="36"/>
-      <c r="I135" s="36"/>
+      <c r="H135" s="28"/>
+      <c r="I135" s="28"/>
     </row>
     <row r="136" spans="1:9" ht="15.75">
-      <c r="A136" s="28"/>
-      <c r="B136" s="24"/>
+      <c r="A136" s="33"/>
+      <c r="B136" s="32"/>
       <c r="C136" s="17" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -3164,44 +3177,44 @@
       <c r="G136" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H136" s="36"/>
-      <c r="I136" s="36"/>
+      <c r="H136" s="28"/>
+      <c r="I136" s="28"/>
     </row>
     <row r="137" spans="1:9" ht="15.75">
-      <c r="A137" s="28"/>
-      <c r="B137" s="24"/>
+      <c r="A137" s="33"/>
+      <c r="B137" s="32"/>
       <c r="C137" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E137" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
-      <c r="H137" s="36"/>
-      <c r="I137" s="36"/>
+      <c r="H137" s="28"/>
+      <c r="I137" s="28"/>
     </row>
     <row r="138" spans="1:9" ht="15.75">
-      <c r="A138" s="28"/>
-      <c r="B138" s="24"/>
+      <c r="A138" s="33"/>
+      <c r="B138" s="32"/>
       <c r="C138" s="17" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="D138" s="2"/>
-      <c r="E138" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="E138" s="2"/>
       <c r="F138" s="2"/>
-      <c r="G138" s="2"/>
-      <c r="H138" s="36"/>
-      <c r="I138" s="36"/>
+      <c r="G138" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H138" s="28"/>
+      <c r="I138" s="28"/>
     </row>
     <row r="139" spans="1:9" ht="15.75">
-      <c r="A139" s="29"/>
-      <c r="B139" s="25"/>
+      <c r="A139" s="33"/>
+      <c r="B139" s="32"/>
       <c r="C139" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>6</v>
@@ -3209,46 +3222,52 @@
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
-      <c r="H139" s="36"/>
-      <c r="I139" s="36"/>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="A140" s="23"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
-      <c r="G140" s="3"/>
-      <c r="I140" s="3"/>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="B141" s="12"/>
-      <c r="C141" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="3"/>
-      <c r="G141" s="3"/>
-      <c r="I141" s="3"/>
+      <c r="H139" s="28"/>
+      <c r="I139" s="28"/>
+    </row>
+    <row r="140" spans="1:9" ht="15.75">
+      <c r="A140" s="33"/>
+      <c r="B140" s="32"/>
+      <c r="C140" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="28"/>
+      <c r="I140" s="28"/>
+    </row>
+    <row r="141" spans="1:9" ht="15.75">
+      <c r="A141" s="34"/>
+      <c r="B141" s="29"/>
+      <c r="C141" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="28"/>
+      <c r="I141" s="28"/>
     </row>
     <row r="142" spans="1:9">
-      <c r="B142" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C142" s="4"/>
+      <c r="A142" s="23"/>
+      <c r="C142" s="1"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="I142" s="3"/>
     </row>
-    <row r="143" spans="1:9" ht="60">
-      <c r="B143" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C143" s="12">
-        <v>1</v>
+    <row r="143" spans="1:9">
+      <c r="B143" s="12"/>
+      <c r="C143" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -3256,62 +3275,86 @@
       <c r="G143" s="3"/>
       <c r="I143" s="3"/>
     </row>
-    <row r="144" spans="1:9" ht="30">
-      <c r="B144" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C144" s="12">
-        <v>2</v>
-      </c>
+    <row r="144" spans="1:9">
+      <c r="B144" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C144" s="4"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
       <c r="I144" s="3"/>
     </row>
-    <row r="145" spans="2:3" ht="30">
+    <row r="145" spans="2:9" ht="60">
       <c r="B145" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" s="12">
+        <v>1</v>
+      </c>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
+      <c r="I145" s="3"/>
+    </row>
+    <row r="146" spans="2:9" ht="30">
+      <c r="B146" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C146" s="12">
+        <v>2</v>
+      </c>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
+      <c r="I146" s="3"/>
+    </row>
+    <row r="147" spans="2:9" ht="30">
+      <c r="B147" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C145" s="12">
+      <c r="C147" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="2:3" ht="30">
-      <c r="B146" s="11" t="s">
+    <row r="148" spans="2:9" ht="30">
+      <c r="B148" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C146" s="12">
+      <c r="C148" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="2:3" ht="30">
-      <c r="B147" s="11" t="s">
+    <row r="149" spans="2:9" ht="30">
+      <c r="B149" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C147" s="21">
+      <c r="C149" s="21">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B131:B141"/>
+    <mergeCell ref="B54:B71"/>
+    <mergeCell ref="A54:A71"/>
+    <mergeCell ref="B122:B130"/>
+    <mergeCell ref="A131:A141"/>
+    <mergeCell ref="A122:A130"/>
+    <mergeCell ref="A72:A121"/>
+    <mergeCell ref="B72:B121"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="B12:B53"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A53"/>
-    <mergeCell ref="B129:B139"/>
-    <mergeCell ref="B54:B71"/>
-    <mergeCell ref="A54:A71"/>
-    <mergeCell ref="B120:B128"/>
-    <mergeCell ref="A129:A139"/>
-    <mergeCell ref="A120:A128"/>
-    <mergeCell ref="A72:A119"/>
-    <mergeCell ref="B72:B119"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F120:G120 F139:G142 F125:G133 G134:G136 F135:F138 D128:E142 G122:G124 F121:F124 D2:E48 G2:G65 G67:G119 F2:F119 D49:D127 E49:E126">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F122:G122 F141:G144 F127:G135 G136:G138 F137:F140 D130:E144 G124:G126 F123:F126 G2:G65 G67:G121 D2:F121 E122:E128 D122:D129">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
